--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_22-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_22-03.xlsx
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
     <t>OPLEX-N SYRUP 125ML</t>
@@ -2570,13 +2573,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2596,13 +2599,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2622,17 +2625,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2640,7 +2643,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2648,17 +2651,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2674,17 +2677,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>23.039999999999999</v>
+        <v>38</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2700,17 +2703,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>23</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2726,13 +2729,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2744,7 +2747,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2752,17 +2755,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2778,13 +2781,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2810,7 +2813,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2830,13 +2833,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2862,11 +2865,11 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2882,17 +2885,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2908,17 +2911,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2934,13 +2937,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2960,13 +2963,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2986,17 +2989,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3004,7 +3007,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3012,17 +3015,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3038,17 +3041,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3056,7 +3059,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3064,17 +3067,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3096,7 +3099,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3116,17 +3119,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3142,17 +3145,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3174,7 +3177,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3194,13 +3197,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>-96</v>
+        <v>168</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3220,13 +3223,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>96</v>
+        <v>-96</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3246,13 +3249,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>-25</v>
+        <v>96</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3264,7 +3267,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3272,13 +3275,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3290,7 +3293,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3298,13 +3301,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3324,17 +3327,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3342,7 +3345,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3350,17 +3353,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3368,7 +3371,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3376,17 +3379,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>132</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3394,7 +3397,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3402,17 +3405,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3420,7 +3423,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3428,17 +3431,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3454,17 +3457,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>44.100000000000001</v>
+        <v>40</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3480,13 +3483,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>72</v>
+        <v>44.100000000000001</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3498,7 +3501,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3506,17 +3509,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3532,13 +3535,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3558,13 +3561,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3584,13 +3587,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3610,51 +3613,77 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="K104" s="10">
-        <v>6567.6400000000003</v>
-      </c>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="11">
+    <row r="104" ht="24.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="B104" s="7">
+        <v>144</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c t="s" r="H104" s="8">
         <v>145</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c t="s" r="F105" s="12">
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="9">
+        <v>35</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c t="s" r="N104" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" ht="26.25" customHeight="1">
+      <c r="K105" s="10">
+        <v>6638.6400000000003</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="11">
         <v>146</v>
       </c>
-      <c r="G105" s="12"/>
-      <c r="H105" s="13"/>
-      <c t="s" r="I105" s="14">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c t="s" r="F106" s="12">
         <v>147</v>
       </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="13"/>
+      <c t="s" r="I106" s="14">
+        <v>148</v>
+      </c>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="311">
+  <mergeCells count="314">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3962,10 +3991,13 @@
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="I105:N105"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I106:N106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
